--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohnj\Project\테니스 ELO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6A6F56-BF14-4736-B586-5FE93A51F522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A057B511-D13E-4D8A-A07B-84C16D45A4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-5070" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-5070" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELO" sheetId="1" r:id="rId1"/>
@@ -485,7 +485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -709,13 +709,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,100 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohnj\Project\테니스 ELO\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B119B328-CD66-43DD-B04C-A1A5CDBC13A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-5070" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ELO" sheetId="1" r:id="rId1"/>
-    <sheet name="Games" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ELO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Games" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
-  <si>
-    <t>날짜</t>
-  </si>
-  <si>
-    <t>대회명</t>
-  </si>
-  <si>
-    <t>K값</t>
-  </si>
-  <si>
-    <t>이름</t>
-  </si>
-  <si>
-    <t>ELO</t>
-  </si>
-  <si>
-    <t>복식여부</t>
-  </si>
-  <si>
-    <t>이름1</t>
-  </si>
-  <si>
-    <t>이름1A</t>
-  </si>
-  <si>
-    <t>이름2</t>
-  </si>
-  <si>
-    <t>이름2A</t>
-  </si>
-  <si>
-    <t>점수1</t>
-  </si>
-  <si>
-    <t>점수2</t>
-  </si>
-  <si>
-    <t>델타</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -109,44 +47,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -434,106 +421,476 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>대회명</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>K값</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>이름</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ELO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>등록</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>이승준</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>등록</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>손준혁</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>등록</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>엄세현</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>등록</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>박준영</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>등록</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>백성진</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>테스트</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>200</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>박준영</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>테스트</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>200</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>백성진</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>테스트</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>200</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>손준혁</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>테스트</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>200</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>엄세현</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>테스트</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>200</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>이승준</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1980</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>대회명</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>K값</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>복식여부</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>이름1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>이름1A</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>이름2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>이름2A</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>점수1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>점수2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>델타</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>테스트</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>200</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>단식</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>박준영</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>백성진</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>테스트</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>200</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>단식</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>엄세현</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>백성진</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
+      <c r="K3" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>테스트</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>단식</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>이승준</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>손준혁</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,6 +689,167 @@
       </c>
       <c r="E11" t="n">
         <v>1980</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>등록</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>권태현</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>테스트2</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>200</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>박준영</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>테스트2</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>200</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>손준혁</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>테스트2</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>200</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>엄세현</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ㅁㅇㄴㄻㄴㅇ</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>200</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>박준영</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ㅁㅇㄴㄻㄴㅇ</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>200</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>백성진</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ㅁㅇㄴㄻㄴㅇ</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>200</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>손준혁</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1961</v>
       </c>
     </row>
   </sheetData>
@@ -702,7 +863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -890,6 +1051,129 @@
         <v>20</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>테스트2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>200</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>단식</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>박준영</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>손준혁</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>테스트2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>200</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>단식</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>엄세현</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>손준혁</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ㅁㅇㄴㄻㄴㅇ</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>200</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>단식</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>박준영</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>백성진</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,23 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohnj\Downloads\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohnj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B841A7D-CA43-484A-A1FD-E2177B84B216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9CB285-9D47-4119-B42C-5938F3C48613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-4690" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELO" sheetId="1" r:id="rId1"/>
     <sheet name="Games" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="26">
   <si>
     <t>날짜</t>
   </si>
@@ -96,6 +109,10 @@
   </si>
   <si>
     <t>백성진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>천안 문단세 추가점수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -161,11 +178,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -468,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -805,6 +823,108 @@
         <v>1712</v>
       </c>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>45670</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>45671</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>45672</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>45673</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>45674</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>45675</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>2012</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -816,7 +936,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ELO" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Games" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ELO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Games" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,10 +17,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -59,12 +56,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +464,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2025-02-08</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -491,7 +487,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2025-02-08</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,7 +500,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>권태현</t>
+          <t>백성진</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -514,7 +510,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2025-02-08</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -527,7 +523,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>백성진</t>
+          <t>권태현</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -537,7 +533,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2025-02-08</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -560,7 +556,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2025-02-08</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -573,7 +569,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>박준영</t>
+          <t>손준혁</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -583,7 +579,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2025-02-08</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -596,7 +592,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>손준혁</t>
+          <t>박준영</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -619,11 +615,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>백성진</t>
+          <t>권태현</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1893</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="9">
@@ -642,11 +638,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>권태현</t>
+          <t>박준영</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2041</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="10">
@@ -665,11 +661,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>박준영</t>
+          <t>백성진</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2199</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="11">
@@ -692,7 +688,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2032</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="12">
@@ -715,7 +711,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2075</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="13">
@@ -738,7 +734,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1760</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="14">
@@ -757,11 +753,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>백성진</t>
+          <t>권태현</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1868</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="15">
@@ -780,11 +776,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>권태현</t>
+          <t>박준영</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2226</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="16">
@@ -803,11 +799,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>박준영</t>
+          <t>백성진</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2157</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="17">
@@ -830,7 +826,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1935</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="18">
@@ -853,7 +849,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2102</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="19">
@@ -876,225 +872,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45670</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>천안 문단세 추가점수</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>백성진</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>2168</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45671</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>천안 문단세 추가점수</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>권태현</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>2526</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45672</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>천안 문단세 추가점수</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>박준영</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>2457</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45673</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>천안 문단세 추가점수</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>손준혁</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>2235</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45674</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>천안 문단세 추가점수</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>엄세현</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>2402</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45675</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>천안 문단세 추가점수</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>이승준</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-01-14</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>특허청 연수원</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>100</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>박준영</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>2467</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-01-14</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>특허청 연수원</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>100</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>손준혁</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>2294</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-01-14</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>특허청 연수원</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>100</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>엄세현</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>2319</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-01-14</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>특허청 연수원</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>100</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>이승준</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>2046</v>
+        <v>1760</v>
       </c>
     </row>
   </sheetData>
@@ -1108,7 +886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1169,7 +947,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>델타</t>
+          <t>델타1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>델타2</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1002,10 @@
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>33</v>
+        <v>-29</v>
+      </c>
+      <c r="L2" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -1268,7 +1054,10 @@
         <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>33</v>
+        <v>-29</v>
+      </c>
+      <c r="L3" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="4">
@@ -1317,7 +1106,10 @@
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-29</v>
       </c>
     </row>
     <row r="5">
@@ -1366,7 +1158,10 @@
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="L5" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -1415,7 +1210,10 @@
         <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="7">
@@ -1464,7 +1262,10 @@
         <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>33</v>
+        <v>-29</v>
+      </c>
+      <c r="L7" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="8">
@@ -1513,7 +1314,10 @@
         <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="L8" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1562,7 +1366,10 @@
         <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>33</v>
+        <v>-29</v>
+      </c>
+      <c r="L9" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -1611,7 +1418,10 @@
         <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>100</v>
+        <v>-96</v>
+      </c>
+      <c r="L10" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="11">
@@ -1660,7 +1470,10 @@
         <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>60</v>
+        <v>-56</v>
+      </c>
+      <c r="L11" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1709,7 +1522,10 @@
         <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-29</v>
       </c>
     </row>
     <row r="13">
@@ -1758,7 +1574,10 @@
         <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>33</v>
+        <v>-29</v>
+      </c>
+      <c r="L13" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="14">
@@ -1807,7 +1626,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-25</v>
       </c>
     </row>
     <row r="15">
@@ -1856,7 +1678,10 @@
         <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>17</v>
+        <v>-14</v>
+      </c>
+      <c r="L15" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -1905,7 +1730,10 @@
         <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>58</v>
+        <v>-55</v>
+      </c>
+      <c r="L16" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="17">
@@ -1954,7 +1782,10 @@
         <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>54</v>
+        <v>-49</v>
+      </c>
+      <c r="L17" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="18">
@@ -2003,351 +1834,10 @@
         <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-01-14</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>특허청 연수원</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>100</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>단식</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>박준영</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>엄세현</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-01-14</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>특허청 연수원</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>100</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>단식</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>손준혁</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>이승준</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-01-14</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>특허청 연수원</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>100</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>단식</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>박준영</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>이승준</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="n">
-        <v>4</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-01-14</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>특허청 연수원</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>100</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>단식</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>엄세현</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>손준혁</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4</v>
-      </c>
-      <c r="K22" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-01-14</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>특허청 연수원</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>100</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>단식</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>박준영</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>손준혁</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="n">
-        <v>4</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-01-14</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>특허청 연수원</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>100</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>단식</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>엄세현</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>이승준</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="n">
-        <v>4</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-01-14</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>특허청 연수원</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>100</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>복식</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>박준영</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>이승준</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>엄세현</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>손준혁</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>4</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3</v>
-      </c>
-      <c r="K25" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-01-14</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>특허청 연수원</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>100</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>복식</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>박준영</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>손준혁</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>엄세현</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>이승준</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>4</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>11</v>
+        <v>-54</v>
+      </c>
+      <c r="L18" t="n">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
